--- a/get_file_text/example/APP提示语清单表.xlsx
+++ b/get_file_text/example/APP提示语清单表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>hello</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>提示</t>
+  </si>
+  <si>
+    <t>dvlproad</t>
   </si>
   <si>
     <t>/Users/lichaoqian/Project/CQCI/script-qbase/get_file_text/example/lib/tsdemo_publish_page.dart</t>
@@ -553,8 +556,14 @@
       <c r="G3" t="b">
         <v>1</v>
       </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -565,16 +574,22 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -585,16 +600,22 @@
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
       </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -605,16 +626,22 @@
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
       </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -625,16 +652,22 @@
         <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
